--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2881767.242349271</v>
+        <v>2985946.876800344</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.961229153611</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>240.7922713306614</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>133.6678680078464</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.33530928504481</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>74.22494303712078</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>135.4371632022867</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>279.0440125622328</v>
+        <v>157.2389093615301</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>92.47445699814261</v>
+        <v>196.1623266599249</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1291,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>116.6286547214874</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>258.2317318494241</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>1.255571502167253</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>59.96838802184509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>10.74993283584276</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1895,19 +1897,19 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>38.76543552489255</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.74993283584276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>67.00771475394413</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>153.5035027782538</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>80.3196045412455</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>161.740039342104</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>168.3381167077338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6127326838975</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>152.0688644383635</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>40.9610540507643</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.4765410832877</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>83.44729448253425</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>104.8913819999782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855438</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4331,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3082.381305113554</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>561.0764108006847</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C4" t="n">
-        <v>392.1402278727778</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>242.0235884604421</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4489,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709433</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.507005672472</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5174547744546</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.7248756309244</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>563.5047572728761</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>563.5047572728761</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>556.5592565236726</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>141.4868063686691</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0847133907091</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
         <v>310.0549803959803</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1333.834836463796</v>
+        <v>1265.18441006911</v>
       </c>
       <c r="V7" t="n">
-        <v>1079.150348257909</v>
+        <v>1265.18441006911</v>
       </c>
       <c r="W7" t="n">
-        <v>789.7331782209488</v>
+        <v>975.7672400321496</v>
       </c>
       <c r="X7" t="n">
-        <v>789.7331782209488</v>
+        <v>975.7672400321496</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.7331782209488</v>
+        <v>754.9746608886195</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445191</v>
+        <v>815.7608990065712</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>646.8247160786643</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>646.8247160786643</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>498.9116224962712</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>352.0216749983608</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>184.3188383730798</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1163.171458061136</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V10" t="n">
-        <v>908.4869698552495</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W10" t="n">
-        <v>619.069799818289</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X10" t="n">
-        <v>619.069799818289</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.2772206747588</v>
+        <v>997.4093638368109</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,7 +5047,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5060,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>486.0795508855734</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
@@ -5291,37 +5293,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
         <v>2092.798483612594</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5540,19 +5542,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797091</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571558</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.148592041073</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4403.547127064015</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4114.471900408213</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4114.471900408213</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.054730371252</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473234</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329704</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289433</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2716.927329289433</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3314.305816915984</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3941.903780470591</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950412</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.19349744548</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511905</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1822.407037300151</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1567.722549094264</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.19898568143</v>
+        <v>1050.315828159286</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2726.91413360155</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>3324.292621228102</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>3951.890584782709</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>4503.800315021996</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.0191461778176</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2216.543602719426</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1996.942137742368</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1707.866911086565</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1707.866911086565</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1418.449741049605</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1190.460190151587</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>969.6676110080573</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3025.224490384403</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C31" t="n">
-        <v>2856.288307456496</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4453.748946926012</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4234.147481948953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3945.072255293151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3945.072255293151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3655.65508525619</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3427.665534358173</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y31" t="n">
-        <v>3206.872955214643</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333972</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>3475.706650960524</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.341129796739</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868832</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456496</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874103</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.75572940725</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>3577.782173770509</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>3356.989594626978</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.955258982919</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C37" t="n">
-        <v>889.0190760550122</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>738.9024366426764</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>590.9893430602833</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>444.0993955623729</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>276.9032962772529</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589092</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6280888252693</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>150.4319895401492</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>3212.252935505192</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>3839.850899059799</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2940.5785039035</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>2856.288307456496</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.288307456496</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874103</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673937</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018135</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812248</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775287</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>3343.01954787727</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>3122.22696873374</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>144.165476520764</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>107.2784330767827</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>214.9597225531944</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>128.4813855737353</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.834720516252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.0185712477005</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>132.6809716109904</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>145.3900508477917</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28624665954055</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>12.68816929391076</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>27.76311574357379</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>40.30478226780123</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.35543909864957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>84.24553961896831</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>83.79952661609359</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818166</v>
+      </c>
+      <c r="C4" t="n">
         <v>92183.89891818169</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818172</v>
-      </c>
       <c r="D4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683051</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26448,7 +26450,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830977.0808225267</v>
+        <v>-830977.0808225266</v>
       </c>
       <c r="C6" t="n">
-        <v>497767.664905066</v>
+        <v>497767.6649050659</v>
       </c>
       <c r="D6" t="n">
-        <v>497767.6649050657</v>
+        <v>497767.6649050659</v>
       </c>
       <c r="E6" t="n">
-        <v>246542.7539584127</v>
+        <v>246542.753958413</v>
       </c>
       <c r="F6" t="n">
-        <v>571955.2157657676</v>
+        <v>571955.215765768</v>
       </c>
       <c r="G6" t="n">
+        <v>571955.2157657683</v>
+      </c>
+      <c r="H6" t="n">
+        <v>571955.2157657683</v>
+      </c>
+      <c r="I6" t="n">
         <v>571955.2157657682</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>354424.0133684906</v>
+      </c>
+      <c r="K6" t="n">
+        <v>571955.215765768</v>
+      </c>
+      <c r="L6" t="n">
         <v>571955.2157657685</v>
       </c>
-      <c r="I6" t="n">
-        <v>571955.2157657681</v>
-      </c>
-      <c r="J6" t="n">
-        <v>354424.0133684904</v>
-      </c>
-      <c r="K6" t="n">
-        <v>571955.2157657684</v>
-      </c>
-      <c r="L6" t="n">
-        <v>571955.215765768</v>
-      </c>
       <c r="M6" t="n">
-        <v>486900.1878302563</v>
+        <v>486900.1878302561</v>
       </c>
       <c r="N6" t="n">
         <v>571955.2157657683</v>
       </c>
       <c r="O6" t="n">
-        <v>571955.215765768</v>
+        <v>571955.2157657682</v>
       </c>
       <c r="P6" t="n">
-        <v>571955.215765768</v>
+        <v>571955.2157657682</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>275.721812467072</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>10.20290062824063</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.16411217409092</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>118.0986533615244</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>220.3828213501997</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>234.2939374761824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>7.16782564338007</v>
+        <v>128.9729288440828</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>235.2778014719923</v>
+        <v>131.58993181021</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>28.12636019283339</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>27.98010635618874</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29275,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M12" t="n">
-        <v>560.1612034965815</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M15" t="n">
-        <v>687.9583686879464</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32309,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,16 +32557,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O24" t="n">
-        <v>434.1786358382025</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,22 +33496,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>565.6398038246471</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33520,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33673,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>161.7871425275307</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>232.1537035940586</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>537.2623544349631</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111251</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M12" t="n">
-        <v>418.0271695745631</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M15" t="n">
-        <v>545.824334765928</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O24" t="n">
-        <v>291.5823913937581</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>434.2980917413138</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>23.94570355317167</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>90.01966967204032</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>394.6661099905186</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312509</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2985946.876800344</v>
+        <v>2981934.26678635</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.34690181272098</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>240.7922713306614</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.6678680078464</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>75.41231307284907</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>135.4371632022867</v>
+        <v>351.8998908890632</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>47.41254713315932</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.2389093615301</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>307.5629862906304</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1192,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>196.1623266599249</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>116.6286547214874</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444149</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>66.85274231757869</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>1.255571502167253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>194.5925645878131</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>10.74993283584276</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>38.76543552489255</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>153.5035027782538</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.16673120696609</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>120.6127326838975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.0688644383635</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>56.04917322725558</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060555</v>
       </c>
       <c r="T43" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3082.381305113554</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2751.318417769983</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2751.318417769983</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.5608581015648</v>
+        <v>1021.570547268604</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>852.6343643406968</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>702.5177249283611</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>554.604631345968</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>407.7146838480576</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>240.0118472227765</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.361036635886</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>1128.371485737869</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y4" t="n">
-        <v>907.5789065943389</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.678395166736</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>754.9746608886195</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>428.3236015902727</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>260.6207649649916</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>114.4035781828494</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1265.18441006911</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1265.18441006911</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>975.7672400321496</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X7" t="n">
-        <v>975.7672400321496</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y7" t="n">
-        <v>754.9746608886195</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>716.7622987057964</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4840,16 +4840,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2763.640912107148</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2763.640912107148</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>815.7608990065712</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>646.8247160786643</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>646.8247160786643</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>498.9116224962712</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>352.0216749983608</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>184.3188383730798</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1735.608663915319</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1446.191493878358</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1218.201942980341</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>997.4093638368109</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,61 +5020,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362697</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9926444679666</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>486.0795508855734</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1780.902934462213</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1526.218446256326</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1236.801276219365</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>1008.811725321348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>788.0191461778176</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1822.407037300151</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1567.722549094264</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1050.315828159286</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192662</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1022.45315249681</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>801.6605733532803</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4311299055728</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5180363231797</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6280888252693</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>150.4319895401492</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.9792378643586</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>144.165476520764</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>91.59190980143106</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>128.4813855737353</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>132.6809716109904</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>105.2672314396031</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.76311574357379</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>84.24553961896831</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.505489761039</v>
       </c>
       <c r="T43" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
@@ -26325,34 +26325,34 @@
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.378924726223039e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26453,10 +26453,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830977.0808225266</v>
+        <v>-830977.0808225269</v>
       </c>
       <c r="C6" t="n">
-        <v>497767.6649050659</v>
+        <v>497767.6649050664</v>
       </c>
       <c r="D6" t="n">
         <v>497767.6649050659</v>
       </c>
       <c r="E6" t="n">
-        <v>246542.753958413</v>
+        <v>246195.3747040559</v>
       </c>
       <c r="F6" t="n">
-        <v>571955.215765768</v>
+        <v>571607.836511411</v>
       </c>
       <c r="G6" t="n">
-        <v>571955.2157657683</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="H6" t="n">
-        <v>571955.2157657683</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="I6" t="n">
-        <v>571955.2157657682</v>
+        <v>571607.8365114114</v>
       </c>
       <c r="J6" t="n">
-        <v>354424.0133684906</v>
+        <v>354076.6341141337</v>
       </c>
       <c r="K6" t="n">
-        <v>571955.215765768</v>
+        <v>571607.8365114111</v>
       </c>
       <c r="L6" t="n">
-        <v>571955.2157657685</v>
+        <v>571607.8365114115</v>
       </c>
       <c r="M6" t="n">
-        <v>486900.1878302561</v>
+        <v>486552.8085758994</v>
       </c>
       <c r="N6" t="n">
-        <v>571955.2157657683</v>
+        <v>571607.836511411</v>
       </c>
       <c r="O6" t="n">
-        <v>571955.2157657682</v>
+        <v>571607.8365114107</v>
       </c>
       <c r="P6" t="n">
-        <v>571955.2157657682</v>
+        <v>571607.8365114117</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>346.3869398507596</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.20290062824063</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.16411217409092</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.34270184147171</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>234.2939374761824</v>
+        <v>17.83120978940582</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>48.93987327667877</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>128.9729288440828</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>103.358739362823</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>131.58993181021</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>28.12636019283339</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.590653145880544e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.107928257513897e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L12" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L12" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>94.75954470991793</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2981934.26678635</v>
+        <v>2983694.797089135</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.34690181272098</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>36.34690181272008</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H4" t="n">
-        <v>75.41231307284907</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>57.29212650174214</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>351.8998908890632</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47.41254713315932</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.398536716038238</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>307.5629862906304</v>
+        <v>148.961974530327</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444149</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.85274231757869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>194.5925645878131</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>27.0291980517616</v>
+        <v>1.255571502167253</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060555</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1021.570547268604</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>852.6343643406968</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>702.5177249283611</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>554.604631345968</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>407.7146838480576</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G4" t="n">
-        <v>240.0118472227765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>1424.011591242373</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>1203.219012098843</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4609,10 +4609,10 @@
         <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2403.03827352421</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1042.179465010819</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>873.2432820829119</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>723.1266426705762</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>575.2135490881831</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>428.3236015902727</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>260.6207649649916</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>114.4035781828494</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1672.610059882606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.620508984588</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1223.827929841058</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495404</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D8" t="n">
-        <v>1127.748203495404</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="E8" t="n">
-        <v>1127.748203495404</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="F8" t="n">
-        <v>716.7622987057964</v>
+        <v>556.5592565236717</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362697</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1166.195182806535</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1780.902934462213</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1526.218446256326</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1236.801276219365</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1008.811725321348</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>788.0191461778176</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5652,16 +5652,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,28 +5673,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2437.724555511392</v>
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5889,61 +5889,61 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
         <v>1573.595244679635</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192662</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7204,10 +7204,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7250,7 +7250,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111709</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7013164925216</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>444.7013164925216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.9792378643586</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>91.59190980143106</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664508</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.505489761039</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212516</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
@@ -26355,7 +26355,7 @@
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>3.378924726223039e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26438,7 +26438,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26453,10 +26453,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26508,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830977.0808225269</v>
+        <v>-830977.0808225268</v>
       </c>
       <c r="C6" t="n">
-        <v>497767.6649050664</v>
+        <v>497767.6649050658</v>
       </c>
       <c r="D6" t="n">
         <v>497767.6649050659</v>
       </c>
       <c r="E6" t="n">
-        <v>246195.3747040559</v>
+        <v>246508.0160329767</v>
       </c>
       <c r="F6" t="n">
-        <v>571607.836511411</v>
+        <v>571920.4778403329</v>
       </c>
       <c r="G6" t="n">
-        <v>571607.8365114112</v>
+        <v>571920.4778403325</v>
       </c>
       <c r="H6" t="n">
-        <v>571607.8365114112</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="I6" t="n">
-        <v>571607.8365114114</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="J6" t="n">
-        <v>354076.6341141337</v>
+        <v>354389.2754430548</v>
       </c>
       <c r="K6" t="n">
-        <v>571607.8365114111</v>
+        <v>571920.4778403325</v>
       </c>
       <c r="L6" t="n">
-        <v>571607.8365114115</v>
+        <v>571920.4778403325</v>
       </c>
       <c r="M6" t="n">
-        <v>486552.8085758994</v>
+        <v>486865.4499048204</v>
       </c>
       <c r="N6" t="n">
-        <v>571607.836511411</v>
+        <v>571920.4778403323</v>
       </c>
       <c r="O6" t="n">
-        <v>571607.8365114107</v>
+        <v>571920.4778403324</v>
       </c>
       <c r="P6" t="n">
-        <v>571607.8365114117</v>
+        <v>571920.4778403327</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.306832697356</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973558</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.223655907778799e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>346.3869398507596</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.5834682595417</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H4" t="n">
-        <v>69.34270184147171</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>325.4417151617384</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17.83120978940582</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>48.93987327667877</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>217.1504125601309</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>103.358739362823</v>
+        <v>261.9597511231265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>73.08464294440367</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.590653145880544e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.107928257513897e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
